--- a/Covad/vitorc.xlsx
+++ b/Covad/vitorc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="24000" windowHeight="10170"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="196">
   <si>
     <t>NOME</t>
   </si>
@@ -601,452 +601,14 @@
     <t>020181296 com duas datas de baixa sem sentença entre elas</t>
   </si>
   <si>
-    <t>!808</t>
-  </si>
-  <si>
-    <t>!809</t>
-  </si>
-  <si>
-    <t>!810</t>
-  </si>
-  <si>
-    <t>!811</t>
-  </si>
-  <si>
-    <t>130023243 com duas datas de baixa sem sentença entre elas</t>
-  </si>
-  <si>
-    <t>130008227 com duas datas de baixa sem sentença entre elas</t>
-  </si>
-  <si>
-    <t>SABINÓPOLIS</t>
-  </si>
-  <si>
-    <t>VIRGINÓPOLIS</t>
-  </si>
-  <si>
-    <t>LEOPOLDINA</t>
-  </si>
-  <si>
-    <t>UBERLÂNDIA</t>
-  </si>
-  <si>
-    <t>TEÓFILO OTÔNI</t>
-  </si>
-  <si>
-    <t>!812</t>
-  </si>
-  <si>
-    <t>!813</t>
-  </si>
-  <si>
-    <t>!814</t>
-  </si>
-  <si>
-    <t>!815</t>
-  </si>
-  <si>
-    <t>!816</t>
-  </si>
-  <si>
-    <t>!817</t>
-  </si>
-  <si>
-    <t>!818</t>
-  </si>
-  <si>
-    <t>!819</t>
-  </si>
-  <si>
-    <t>!820</t>
-  </si>
-  <si>
-    <t>!821</t>
-  </si>
-  <si>
-    <t>!822</t>
-  </si>
-  <si>
-    <t>!823</t>
-  </si>
-  <si>
     <t>:750</t>
-  </si>
-  <si>
-    <t>!824</t>
-  </si>
-  <si>
-    <t>!825</t>
-  </si>
-  <si>
-    <t>!826</t>
-  </si>
-  <si>
-    <t>!827</t>
-  </si>
-  <si>
-    <t>!828</t>
-  </si>
-  <si>
-    <t>!829</t>
-  </si>
-  <si>
-    <t>!830</t>
-  </si>
-  <si>
-    <t>!831</t>
-  </si>
-  <si>
-    <t>!832</t>
-  </si>
-  <si>
-    <t>!833</t>
-  </si>
-  <si>
-    <t>!834</t>
-  </si>
-  <si>
-    <t>!835</t>
-  </si>
-  <si>
-    <t>CAMBUÍ</t>
-  </si>
-  <si>
-    <t>Execução provisória apensada ao principal</t>
-  </si>
-  <si>
-    <t>160125917 com duas datas de baixa, sem sentença entre elas</t>
-  </si>
-  <si>
-    <t>CORONEL FABRICIANO</t>
-  </si>
-  <si>
-    <t>170013339 com duas datas de baixa sem sentença entre elas.</t>
-  </si>
-  <si>
-    <t>3 processos fora da temporalidade, mas com duas datas de baixa sem senteça entre elas</t>
-  </si>
-  <si>
-    <t>Lei 12.153 não é saúde</t>
-  </si>
-  <si>
-    <t>130078646 com duas datas de baixa sem sentença entre elas / Embargos de terceiro apensado ao principal</t>
-  </si>
-  <si>
-    <t>160056009 com duas datas de baixa sem sentença entre elas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150039775, 100025171, 100017624 com duas datas de baixa sem sentença entre elas </t>
-  </si>
-  <si>
-    <t>150093556 com duas datas de baixa sem sentença entre elas</t>
-  </si>
-  <si>
-    <t>140021755 com duas datas de baixa sem sentença entre elas.</t>
-  </si>
-  <si>
-    <t>160025934 com duas datas de baixa sem sentença entre elas.</t>
-  </si>
-  <si>
-    <t>OURO PRETO</t>
-  </si>
-  <si>
-    <t>Embargos de terceiros, principal (070639048) já foi movimentado / Incidente processual, principal (050284542) já movimentado / Cautelar incidental, principal (070656877) já movimentado</t>
-  </si>
-  <si>
-    <t>NOVA LIMA</t>
-  </si>
-  <si>
-    <t>SABARÁ</t>
-  </si>
-  <si>
-    <t>UBERABA</t>
-  </si>
-  <si>
-    <t>SERRO</t>
-  </si>
-  <si>
-    <t>PATOS DE MINAS</t>
-  </si>
-  <si>
-    <t>Trabalhei no galpão até 14:30</t>
-  </si>
-  <si>
-    <t>BORDA DA MATA</t>
-  </si>
-  <si>
-    <t>OURO FINO</t>
-  </si>
-  <si>
-    <t>TRÊS MARIAS</t>
-  </si>
-  <si>
-    <t>Embargos de terceiros apensado ao principal</t>
-  </si>
-  <si>
-    <t>Embargos de terceiros apensado ao principal / Exceção de incompetência apensado ao principal.</t>
-  </si>
-  <si>
-    <t>CORINTO</t>
-  </si>
-  <si>
-    <t>)801</t>
-  </si>
-  <si>
-    <t>)802</t>
-  </si>
-  <si>
-    <t>)803</t>
-  </si>
-  <si>
-    <t>)804</t>
-  </si>
-  <si>
-    <t>150021571 não é referente a  saúde</t>
-  </si>
-  <si>
-    <t>ª721</t>
-  </si>
-  <si>
-    <t>ª722</t>
-  </si>
-  <si>
-    <t>ª723</t>
-  </si>
-  <si>
-    <t>ª724</t>
-  </si>
-  <si>
-    <t>ª725</t>
-  </si>
-  <si>
-    <t>ª726</t>
-  </si>
-  <si>
-    <t>Dois processos fora da temporalidade, ambos apensado ao principal que está dentro da temporalidade / Todos os embargos apensados ao principal / 3 Cumprimentos de sentença estão apensados ao principal / Cumprimento de sentença (107024598), classe originária Execução Fiscal / Todos procedimentos cível findo estão extintos no físico.</t>
-  </si>
-  <si>
-    <t>ª727</t>
-  </si>
-  <si>
-    <t>ª728</t>
-  </si>
-  <si>
-    <t>ª729</t>
-  </si>
-  <si>
-    <t>ª730</t>
-  </si>
-  <si>
-    <t>ª731</t>
-  </si>
-  <si>
-    <t>PEDRO LEOPOLDO</t>
-  </si>
-  <si>
-    <t>073239323 fora da temporalidade, mas apensado ao principal (093239281) que está dentro da temporalidade.</t>
-  </si>
-  <si>
-    <t>Todos procedimentos cível findos estão extintos no físico / Todos os embragos estão apensados ao principal / Dois cumprimentos de sentença, classe originária Execução Fiscal.</t>
-  </si>
-  <si>
-    <t>Todos os embargos estão apensados ao principal.</t>
-  </si>
-  <si>
-    <t>ª732</t>
-  </si>
-  <si>
-    <t>ª733</t>
-  </si>
-  <si>
-    <t>ª734</t>
-  </si>
-  <si>
-    <t>ª735</t>
-  </si>
-  <si>
-    <t>ª736</t>
-  </si>
-  <si>
-    <t>ª737</t>
-  </si>
-  <si>
-    <t>ª738</t>
-  </si>
-  <si>
-    <t>ITAJUBÁ</t>
-  </si>
-  <si>
-    <t>Todos procedimentos cível findos estão extintos no físico / Embargos e habilitação de crédito estão apensados ao principal.</t>
-  </si>
-  <si>
-    <t>Todos procedimentos cível findos estão extintos no físico.</t>
-  </si>
-  <si>
-    <t>Todos procedimentos cível findos estão extintos no físico / Todos os embragos estão apensados ao principal.</t>
-  </si>
-  <si>
-    <t>+721</t>
-  </si>
-  <si>
-    <t>+722</t>
-  </si>
-  <si>
-    <t>+723</t>
-  </si>
-  <si>
-    <t>+724</t>
-  </si>
-  <si>
-    <t>PARAOPEBA</t>
-  </si>
-  <si>
-    <t>AÇUCENA</t>
-  </si>
-  <si>
-    <t>Exceção pré executividade, exceção de incompetência e embargos à execução apensados ao principal.</t>
-  </si>
-  <si>
-    <t>991598665 cumprimento de sentença, classe originária Execução Fiscal.</t>
-  </si>
-  <si>
-    <t>Cumprimento de sentença, classe originária Execução Fiscal.</t>
-  </si>
-  <si>
-    <t>+725</t>
-  </si>
-  <si>
-    <t>+726</t>
-  </si>
-  <si>
-    <t>+727</t>
-  </si>
-  <si>
-    <t>+728</t>
-  </si>
-  <si>
-    <t>BETIM</t>
-  </si>
-  <si>
-    <t>ELÓI MENDES</t>
-  </si>
-  <si>
-    <t>BOA ESPERANÇA</t>
-  </si>
-  <si>
-    <t>ITAPECERICA</t>
-  </si>
-  <si>
-    <t>Todos procedimentos cível findo estão extinto no físico / Embargos e arrolamentos-inventarios estão apensados ao principal.</t>
-  </si>
-  <si>
-    <t>Todos os embargos estão apensados ao principal</t>
-  </si>
-  <si>
-    <t>Todos os embargos estão apensados ao principal / todos procedimentos cível findo estão extinto no físico.</t>
-  </si>
-  <si>
-    <t>Embargos à execução apensado ao principal / 100623135 cumprimento de sentença, classe originaria Execução Fiscal.</t>
-  </si>
-  <si>
-    <t>Embargos de terceiros apensado ao principal.</t>
-  </si>
-  <si>
-    <t>Cumprimento de sentença apensado ao principal.</t>
-  </si>
-  <si>
-    <t>+729</t>
-  </si>
-  <si>
-    <t>+730</t>
-  </si>
-  <si>
-    <t>+731</t>
-  </si>
-  <si>
-    <t>+732</t>
-  </si>
-  <si>
-    <t>+733</t>
-  </si>
-  <si>
-    <t>+734</t>
-  </si>
-  <si>
-    <t>Dois cumprimentos de sentença, classe originária Execução Fiscal / Todos procedimentos cível findo estão extintos no físico.</t>
-  </si>
-  <si>
-    <t>+735</t>
-  </si>
-  <si>
-    <t>+736</t>
-  </si>
-  <si>
-    <t>+737</t>
-  </si>
-  <si>
-    <t>+738</t>
-  </si>
-  <si>
-    <t>+739</t>
-  </si>
-  <si>
-    <t>+740</t>
-  </si>
-  <si>
-    <t>Embargos à execução fiscal 095130175, principal (073691180) já eliminado / Dois cumprimentos de sentença, classe originária Execução Fiscal / Embargos à execução apensado ao principal / Procedimento cível findo extinto no físico.</t>
-  </si>
-  <si>
-    <t>Embargos à execução 931013759, principal (906664073) já eliminado / Três embargos à execução apensado ao principal.</t>
-  </si>
-  <si>
-    <t>ITAMBACURI</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>+741</t>
-  </si>
-  <si>
-    <t>+742</t>
-  </si>
-  <si>
-    <t>+743</t>
-  </si>
-  <si>
-    <t>+744</t>
-  </si>
-  <si>
-    <t>+745</t>
-  </si>
-  <si>
-    <t>+746</t>
-  </si>
-  <si>
-    <t>Todos embargos e cumprimento de sentença estão apensados ao principal / Todos os procedimentos cível findo estão extintos no físico.</t>
-  </si>
-  <si>
-    <t>Embargos à execução apensado ao principal</t>
-  </si>
-  <si>
-    <t>Todos os embargos e cumprimento de sentença estão apensados ao principal.</t>
-  </si>
-  <si>
-    <t>Cautelar inominada apensada ao principal.</t>
-  </si>
-  <si>
-    <t>Embargos à execução apensada ao principal.</t>
-  </si>
-  <si>
-    <t>Todos procedimentos cível findos estão extintos no físico / Todos os embargos, cumprimento de sentença e ordinária estão apensados ao principal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3264,21 +2826,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:J270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
@@ -3290,7 +2852,7 @@
     <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -3322,7 +2884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -3354,7 +2916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -3386,7 +2948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -3418,7 +2980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -3450,7 +3012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -3482,7 +3044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -3514,7 +3076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -3546,7 +3108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -3578,7 +3140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -3610,7 +3172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3642,7 +3204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -3674,7 +3236,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -3706,7 +3268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -3738,7 +3300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -3770,7 +3332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
@@ -3802,7 +3364,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2019</v>
       </c>
@@ -3834,7 +3396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -3866,7 +3428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -3898,7 +3460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -3930,7 +3492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -3962,7 +3524,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -3994,7 +3556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2019</v>
       </c>
@@ -4026,7 +3588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -4058,7 +3620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -4090,7 +3652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2019</v>
       </c>
@@ -4122,7 +3684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -4154,7 +3716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -4186,7 +3748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -4218,7 +3780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -4250,7 +3812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -4282,7 +3844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -4314,7 +3876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -4346,7 +3908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -4378,7 +3940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -4410,7 +3972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -4442,7 +4004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -4474,7 +4036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -4506,7 +4068,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2019</v>
       </c>
@@ -4538,7 +4100,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2019</v>
       </c>
@@ -4570,7 +4132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2019</v>
       </c>
@@ -4602,7 +4164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -4634,7 +4196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -4666,7 +4228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2019</v>
       </c>
@@ -4698,7 +4260,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2019</v>
       </c>
@@ -4730,7 +4292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2019</v>
       </c>
@@ -4762,7 +4324,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2019</v>
       </c>
@@ -4794,7 +4356,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2019</v>
       </c>
@@ -4826,7 +4388,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2019</v>
       </c>
@@ -4858,7 +4420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2019</v>
       </c>
@@ -4890,7 +4452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2019</v>
       </c>
@@ -4922,7 +4484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -4954,7 +4516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -4986,7 +4548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -5018,7 +4580,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -5050,7 +4612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -5082,7 +4644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -5114,7 +4676,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -5146,7 +4708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -5178,7 +4740,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -5210,7 +4772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -5242,7 +4804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -5274,7 +4836,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -5306,7 +4868,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2019</v>
       </c>
@@ -5338,7 +4900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2019</v>
       </c>
@@ -5370,7 +4932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -5402,7 +4964,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2019</v>
       </c>
@@ -5434,7 +4996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2019</v>
       </c>
@@ -5466,7 +5028,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2019</v>
       </c>
@@ -5498,7 +5060,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -5530,7 +5092,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -5562,7 +5124,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -5594,7 +5156,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2019</v>
       </c>
@@ -5626,7 +5188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2019</v>
       </c>
@@ -5658,7 +5220,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2019</v>
       </c>
@@ -5690,7 +5252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2019</v>
       </c>
@@ -5722,7 +5284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -5754,7 +5316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -5786,7 +5348,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -5818,7 +5380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -5850,7 +5412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -5882,7 +5444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -5914,7 +5476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -5946,7 +5508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -5978,7 +5540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -6010,7 +5572,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -6042,7 +5604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -6074,7 +5636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -6106,7 +5668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2019</v>
       </c>
@@ -6138,7 +5700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2019</v>
       </c>
@@ -6170,7 +5732,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2019</v>
       </c>
@@ -6202,7 +5764,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2019</v>
       </c>
@@ -6234,7 +5796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2019</v>
       </c>
@@ -6266,7 +5828,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2019</v>
       </c>
@@ -6298,7 +5860,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2019</v>
       </c>
@@ -6330,7 +5892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2019</v>
       </c>
@@ -6362,7 +5924,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2019</v>
       </c>
@@ -6394,7 +5956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2019</v>
       </c>
@@ -6426,7 +5988,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2019</v>
       </c>
@@ -6458,7 +6020,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2019</v>
       </c>
@@ -6490,7 +6052,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2019</v>
       </c>
@@ -6522,7 +6084,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2019</v>
       </c>
@@ -6554,7 +6116,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2019</v>
       </c>
@@ -6586,7 +6148,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2019</v>
       </c>
@@ -6618,7 +6180,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2019</v>
       </c>
@@ -6650,7 +6212,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2019</v>
       </c>
@@ -6682,7 +6244,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -6714,7 +6276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -6746,7 +6308,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -6760,7 +6322,7 @@
         <v>175</v>
       </c>
       <c r="E109" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="F109">
         <v>80</v>
@@ -6778,7 +6340,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -6810,7 +6372,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2019</v>
       </c>
@@ -6842,7 +6404,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2019</v>
       </c>
@@ -6874,7 +6436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -6906,7 +6468,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2019</v>
       </c>
@@ -6938,7 +6500,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2019</v>
       </c>
@@ -6970,7 +6532,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2019</v>
       </c>
@@ -7002,7 +6564,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2019</v>
       </c>
@@ -7034,7 +6596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2019</v>
       </c>
@@ -7066,7 +6628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2019</v>
       </c>
@@ -7098,7 +6660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2019</v>
       </c>
@@ -7130,7 +6692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2019</v>
       </c>
@@ -7162,7 +6724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2019</v>
       </c>
@@ -7194,7 +6756,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2019</v>
       </c>
@@ -7226,7 +6788,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2019</v>
       </c>
@@ -7258,4679 +6820,1014 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
-      <c r="A125">
-        <v>2019</v>
-      </c>
-      <c r="B125">
-        <v>11</v>
-      </c>
-      <c r="C125" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" t="s">
-        <v>160</v>
-      </c>
-      <c r="E125" t="s">
-        <v>195</v>
-      </c>
-      <c r="F125">
-        <v>50</v>
-      </c>
-      <c r="G125" t="s">
-        <v>53</v>
-      </c>
-      <c r="H125" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I125" t="s">
-        <v>12</v>
-      </c>
-      <c r="J125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10">
-      <c r="A126">
-        <v>2019</v>
-      </c>
-      <c r="B126">
-        <v>11</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" t="s">
-        <v>195</v>
-      </c>
-      <c r="F126">
-        <v>4</v>
-      </c>
-      <c r="G126" t="s">
-        <v>53</v>
-      </c>
-      <c r="H126" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I126" t="s">
-        <v>12</v>
-      </c>
-      <c r="J126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="A127">
-        <v>2019</v>
-      </c>
-      <c r="B127">
-        <v>11</v>
-      </c>
-      <c r="C127" t="s">
-        <v>8</v>
-      </c>
-      <c r="D127" t="s">
-        <v>201</v>
-      </c>
-      <c r="E127" t="s">
-        <v>195</v>
-      </c>
-      <c r="F127">
-        <v>4</v>
-      </c>
-      <c r="G127" t="s">
-        <v>53</v>
-      </c>
-      <c r="H127" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I127" t="s">
-        <v>12</v>
-      </c>
-      <c r="J127" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10">
-      <c r="A128">
-        <v>2019</v>
-      </c>
-      <c r="B128">
-        <v>11</v>
-      </c>
-      <c r="C128" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" t="s">
-        <v>202</v>
-      </c>
-      <c r="E128" t="s">
-        <v>195</v>
-      </c>
-      <c r="F128">
-        <v>5</v>
-      </c>
-      <c r="G128" t="s">
-        <v>53</v>
-      </c>
-      <c r="H128" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I128" t="s">
-        <v>12</v>
-      </c>
-      <c r="J128" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129">
-        <v>2019</v>
-      </c>
-      <c r="B129">
-        <v>11</v>
-      </c>
-      <c r="C129" t="s">
-        <v>8</v>
-      </c>
-      <c r="D129" t="s">
-        <v>203</v>
-      </c>
-      <c r="E129" t="s">
-        <v>196</v>
-      </c>
-      <c r="F129">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s">
-        <v>53</v>
-      </c>
-      <c r="H129" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I129" t="s">
-        <v>12</v>
-      </c>
-      <c r="J129" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130">
-        <v>2019</v>
-      </c>
-      <c r="B130">
-        <v>11</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>204</v>
-      </c>
-      <c r="E130" t="s">
-        <v>196</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130" t="s">
-        <v>53</v>
-      </c>
-      <c r="H130" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I130" t="s">
-        <v>12</v>
-      </c>
-      <c r="J130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10">
-      <c r="A131">
-        <v>2019</v>
-      </c>
-      <c r="B131">
-        <v>11</v>
-      </c>
-      <c r="C131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>205</v>
-      </c>
-      <c r="E131" t="s">
-        <v>196</v>
-      </c>
-      <c r="F131">
-        <v>38</v>
-      </c>
-      <c r="G131" t="s">
-        <v>53</v>
-      </c>
-      <c r="H131" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I131" t="s">
-        <v>12</v>
-      </c>
-      <c r="J131" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10">
-      <c r="A132">
-        <v>2019</v>
-      </c>
-      <c r="B132">
-        <v>11</v>
-      </c>
-      <c r="C132" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132" t="s">
-        <v>160</v>
-      </c>
-      <c r="E132" t="s">
-        <v>197</v>
-      </c>
-      <c r="F132">
-        <v>97</v>
-      </c>
-      <c r="G132" t="s">
-        <v>53</v>
-      </c>
-      <c r="H132" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I132" t="s">
-        <v>12</v>
-      </c>
-      <c r="J132" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133">
-        <v>2019</v>
-      </c>
-      <c r="B133">
-        <v>11</v>
-      </c>
-      <c r="C133" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" t="s">
-        <v>185</v>
-      </c>
-      <c r="E133" t="s">
-        <v>197</v>
-      </c>
-      <c r="F133">
-        <v>2</v>
-      </c>
-      <c r="G133" t="s">
-        <v>53</v>
-      </c>
-      <c r="H133" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I133" t="s">
-        <v>12</v>
-      </c>
-      <c r="J133" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10">
-      <c r="A134">
-        <v>2019</v>
-      </c>
-      <c r="B134">
-        <v>11</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" t="s">
-        <v>160</v>
-      </c>
-      <c r="E134" t="s">
-        <v>198</v>
-      </c>
-      <c r="F134">
-        <v>109</v>
-      </c>
-      <c r="G134" t="s">
-        <v>53</v>
-      </c>
-      <c r="H134" s="1">
-        <v>43689</v>
-      </c>
-      <c r="I134" t="s">
-        <v>12</v>
-      </c>
-      <c r="J134" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135">
-        <v>2019</v>
-      </c>
-      <c r="B135">
-        <v>11</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" t="s">
-        <v>160</v>
-      </c>
-      <c r="E135" t="s">
-        <v>206</v>
-      </c>
-      <c r="F135">
-        <v>79</v>
-      </c>
-      <c r="G135" t="s">
-        <v>53</v>
-      </c>
-      <c r="H135" s="1">
-        <v>43690</v>
-      </c>
-      <c r="I135" t="s">
-        <v>12</v>
-      </c>
-      <c r="J135" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10">
-      <c r="A136">
-        <v>2019</v>
-      </c>
-      <c r="B136">
-        <v>11</v>
-      </c>
-      <c r="C136" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" t="s">
-        <v>160</v>
-      </c>
-      <c r="E136" t="s">
-        <v>207</v>
-      </c>
-      <c r="F136">
-        <v>90</v>
-      </c>
-      <c r="G136" t="s">
-        <v>53</v>
-      </c>
-      <c r="H136" s="1">
-        <v>43690</v>
-      </c>
-      <c r="I136" t="s">
-        <v>12</v>
-      </c>
-      <c r="J136" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10">
-      <c r="A137">
-        <v>2019</v>
-      </c>
-      <c r="B137">
-        <v>11</v>
-      </c>
-      <c r="C137" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" t="s">
-        <v>160</v>
-      </c>
-      <c r="E137" t="s">
-        <v>208</v>
-      </c>
-      <c r="F137">
-        <v>70</v>
-      </c>
-      <c r="G137" t="s">
-        <v>53</v>
-      </c>
-      <c r="H137" s="1">
-        <v>43690</v>
-      </c>
-      <c r="I137" t="s">
-        <v>12</v>
-      </c>
-      <c r="J137" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
-      <c r="A138">
-        <v>2019</v>
-      </c>
-      <c r="B138">
-        <v>11</v>
-      </c>
-      <c r="C138" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" t="s">
-        <v>160</v>
-      </c>
-      <c r="E138" t="s">
-        <v>209</v>
-      </c>
-      <c r="F138">
-        <v>92</v>
-      </c>
-      <c r="G138" t="s">
-        <v>53</v>
-      </c>
-      <c r="H138" s="1">
-        <v>43690</v>
-      </c>
-      <c r="I138" t="s">
-        <v>12</v>
-      </c>
-      <c r="J138" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10">
-      <c r="A139">
-        <v>2019</v>
-      </c>
-      <c r="B139">
-        <v>11</v>
-      </c>
-      <c r="C139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" t="s">
-        <v>160</v>
-      </c>
-      <c r="E139" t="s">
-        <v>210</v>
-      </c>
-      <c r="F139">
-        <v>105</v>
-      </c>
-      <c r="G139" t="s">
-        <v>53</v>
-      </c>
-      <c r="H139" s="1">
-        <v>43690</v>
-      </c>
-      <c r="I139" t="s">
-        <v>12</v>
-      </c>
-      <c r="J139" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10">
-      <c r="A140">
-        <v>2019</v>
-      </c>
-      <c r="B140">
-        <v>11</v>
-      </c>
-      <c r="C140" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" t="s">
-        <v>160</v>
-      </c>
-      <c r="E140" t="s">
-        <v>211</v>
-      </c>
-      <c r="F140">
-        <v>73</v>
-      </c>
-      <c r="G140" t="s">
-        <v>53</v>
-      </c>
-      <c r="H140" s="1">
-        <v>43690</v>
-      </c>
-      <c r="I140" t="s">
-        <v>12</v>
-      </c>
-      <c r="J140" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10">
-      <c r="A141">
-        <v>2019</v>
-      </c>
-      <c r="B141">
-        <v>11</v>
-      </c>
-      <c r="C141" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" t="s">
-        <v>160</v>
-      </c>
-      <c r="E141" t="s">
-        <v>212</v>
-      </c>
-      <c r="F141">
-        <v>92</v>
-      </c>
-      <c r="G141" t="s">
-        <v>53</v>
-      </c>
-      <c r="H141" s="1">
-        <v>43691</v>
-      </c>
-      <c r="I141" t="s">
-        <v>12</v>
-      </c>
-      <c r="J141" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142">
-        <v>2019</v>
-      </c>
-      <c r="B142">
-        <v>11</v>
-      </c>
-      <c r="C142" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" t="s">
-        <v>160</v>
-      </c>
-      <c r="E142" t="s">
-        <v>213</v>
-      </c>
-      <c r="F142">
-        <v>91</v>
-      </c>
-      <c r="G142" t="s">
-        <v>53</v>
-      </c>
-      <c r="H142" s="1">
-        <v>43691</v>
-      </c>
-      <c r="I142" t="s">
-        <v>12</v>
-      </c>
-      <c r="J142" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143">
-        <v>2019</v>
-      </c>
-      <c r="B143">
-        <v>11</v>
-      </c>
-      <c r="C143" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" t="s">
-        <v>183</v>
-      </c>
-      <c r="E143" t="s">
-        <v>214</v>
-      </c>
-      <c r="F143">
-        <v>80</v>
-      </c>
-      <c r="G143" t="s">
-        <v>53</v>
-      </c>
-      <c r="H143" s="1">
-        <v>43691</v>
-      </c>
-      <c r="I143" t="s">
-        <v>12</v>
-      </c>
-      <c r="J143" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10">
-      <c r="A144">
-        <v>2019</v>
-      </c>
-      <c r="B144">
-        <v>11</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>183</v>
-      </c>
-      <c r="E144" t="s">
-        <v>215</v>
-      </c>
-      <c r="F144">
-        <v>90</v>
-      </c>
-      <c r="G144" t="s">
-        <v>53</v>
-      </c>
-      <c r="H144" s="1">
-        <v>43691</v>
-      </c>
-      <c r="I144" t="s">
-        <v>12</v>
-      </c>
-      <c r="J144" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145">
-        <v>2019</v>
-      </c>
-      <c r="B145">
-        <v>11</v>
-      </c>
-      <c r="C145" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145" t="s">
-        <v>183</v>
-      </c>
-      <c r="E145" t="s">
-        <v>216</v>
-      </c>
-      <c r="F145">
-        <v>71</v>
-      </c>
-      <c r="G145" t="s">
-        <v>53</v>
-      </c>
-      <c r="H145" s="1">
-        <v>43691</v>
-      </c>
-      <c r="I145" t="s">
-        <v>12</v>
-      </c>
-      <c r="J145" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146">
-        <v>2019</v>
-      </c>
-      <c r="B146">
-        <v>11</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s">
-        <v>183</v>
-      </c>
-      <c r="E146" t="s">
-        <v>217</v>
-      </c>
-      <c r="F146">
-        <v>75</v>
-      </c>
-      <c r="G146" t="s">
-        <v>53</v>
-      </c>
-      <c r="H146" s="1">
-        <v>43691</v>
-      </c>
-      <c r="I146" t="s">
-        <v>12</v>
-      </c>
-      <c r="J146" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147">
-        <v>2019</v>
-      </c>
-      <c r="B147">
-        <v>11</v>
-      </c>
-      <c r="C147" t="s">
-        <v>8</v>
-      </c>
-      <c r="D147" t="s">
-        <v>183</v>
-      </c>
-      <c r="E147" t="s">
-        <v>219</v>
-      </c>
-      <c r="F147">
-        <v>73</v>
-      </c>
-      <c r="G147" t="s">
-        <v>53</v>
-      </c>
-      <c r="H147" s="1">
-        <v>43692</v>
-      </c>
-      <c r="I147" t="s">
-        <v>31</v>
-      </c>
-      <c r="J147" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="A148">
-        <v>2019</v>
-      </c>
-      <c r="B148">
-        <v>11</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>183</v>
-      </c>
-      <c r="E148" t="s">
-        <v>220</v>
-      </c>
-      <c r="F148">
-        <v>55</v>
-      </c>
-      <c r="G148" t="s">
-        <v>53</v>
-      </c>
-      <c r="H148" s="1">
-        <v>43692</v>
-      </c>
-      <c r="I148" t="s">
-        <v>31</v>
-      </c>
-      <c r="J148" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="A149">
-        <v>2019</v>
-      </c>
-      <c r="B149">
-        <v>11</v>
-      </c>
-      <c r="C149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149" t="s">
-        <v>183</v>
-      </c>
-      <c r="E149" t="s">
-        <v>221</v>
-      </c>
-      <c r="F149">
-        <v>56</v>
-      </c>
-      <c r="G149" t="s">
-        <v>53</v>
-      </c>
-      <c r="H149" s="1">
-        <v>43692</v>
-      </c>
-      <c r="I149" t="s">
-        <v>31</v>
-      </c>
-      <c r="J149" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="A150">
-        <v>2019</v>
-      </c>
-      <c r="B150">
-        <v>11</v>
-      </c>
-      <c r="C150" t="s">
-        <v>8</v>
-      </c>
-      <c r="D150" t="s">
-        <v>183</v>
-      </c>
-      <c r="E150" t="s">
-        <v>222</v>
-      </c>
-      <c r="F150">
-        <v>67</v>
-      </c>
-      <c r="G150" t="s">
-        <v>53</v>
-      </c>
-      <c r="H150" s="1">
-        <v>43692</v>
-      </c>
-      <c r="I150" t="s">
-        <v>31</v>
-      </c>
-      <c r="J150" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151">
-        <v>2019</v>
-      </c>
-      <c r="B151">
-        <v>11</v>
-      </c>
-      <c r="C151" t="s">
-        <v>8</v>
-      </c>
-      <c r="D151" t="s">
-        <v>231</v>
-      </c>
-      <c r="E151" t="s">
-        <v>223</v>
-      </c>
-      <c r="F151">
-        <v>85</v>
-      </c>
-      <c r="G151" t="s">
-        <v>53</v>
-      </c>
-      <c r="H151" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I151" t="s">
-        <v>12</v>
-      </c>
-      <c r="J151" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152">
-        <v>2019</v>
-      </c>
-      <c r="B152">
-        <v>11</v>
-      </c>
-      <c r="C152" t="s">
-        <v>8</v>
-      </c>
-      <c r="D152" t="s">
-        <v>231</v>
-      </c>
-      <c r="E152" t="s">
-        <v>224</v>
-      </c>
-      <c r="F152">
-        <v>90</v>
-      </c>
-      <c r="G152" t="s">
-        <v>53</v>
-      </c>
-      <c r="H152" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I152" t="s">
-        <v>12</v>
-      </c>
-      <c r="J152" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153">
-        <v>2019</v>
-      </c>
-      <c r="B153">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153" t="s">
-        <v>231</v>
-      </c>
-      <c r="E153" t="s">
-        <v>225</v>
-      </c>
-      <c r="F153">
-        <v>71</v>
-      </c>
-      <c r="G153" t="s">
-        <v>53</v>
-      </c>
-      <c r="H153" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I153" t="s">
-        <v>12</v>
-      </c>
-      <c r="J153" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="A154">
-        <v>2019</v>
-      </c>
-      <c r="B154">
-        <v>11</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154" t="s">
-        <v>231</v>
-      </c>
-      <c r="E154" t="s">
-        <v>226</v>
-      </c>
-      <c r="F154">
-        <v>90</v>
-      </c>
-      <c r="G154" t="s">
-        <v>53</v>
-      </c>
-      <c r="H154" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I154" t="s">
-        <v>12</v>
-      </c>
-      <c r="J154" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155">
-        <v>2019</v>
-      </c>
-      <c r="B155">
-        <v>11</v>
-      </c>
-      <c r="C155" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155" t="s">
-        <v>104</v>
-      </c>
-      <c r="E155" t="s">
-        <v>227</v>
-      </c>
-      <c r="F155">
-        <v>58</v>
-      </c>
-      <c r="G155" t="s">
-        <v>53</v>
-      </c>
-      <c r="H155" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I155" t="s">
-        <v>12</v>
-      </c>
-      <c r="J155" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="A156">
-        <v>2019</v>
-      </c>
-      <c r="B156">
-        <v>11</v>
-      </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>104</v>
-      </c>
-      <c r="E156" t="s">
-        <v>228</v>
-      </c>
-      <c r="F156">
-        <v>66</v>
-      </c>
-      <c r="G156" t="s">
-        <v>53</v>
-      </c>
-      <c r="H156" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I156" t="s">
-        <v>12</v>
-      </c>
-      <c r="J156" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157">
-        <v>2019</v>
-      </c>
-      <c r="B157">
-        <v>11</v>
-      </c>
-      <c r="C157" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" t="s">
-        <v>104</v>
-      </c>
-      <c r="E157" t="s">
-        <v>229</v>
-      </c>
-      <c r="F157">
-        <v>52</v>
-      </c>
-      <c r="G157" t="s">
-        <v>53</v>
-      </c>
-      <c r="H157" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I157" t="s">
-        <v>12</v>
-      </c>
-      <c r="J157" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="A158">
-        <v>2019</v>
-      </c>
-      <c r="B158">
-        <v>11</v>
-      </c>
-      <c r="C158" t="s">
-        <v>8</v>
-      </c>
-      <c r="D158" t="s">
-        <v>104</v>
-      </c>
-      <c r="E158" t="s">
-        <v>230</v>
-      </c>
-      <c r="F158">
-        <v>46</v>
-      </c>
-      <c r="G158" t="s">
-        <v>53</v>
-      </c>
-      <c r="H158" s="1">
-        <v>43693</v>
-      </c>
-      <c r="I158" t="s">
-        <v>12</v>
-      </c>
-      <c r="J158" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159">
-        <v>2019</v>
-      </c>
-      <c r="B159">
-        <v>13</v>
-      </c>
-      <c r="C159" t="s">
-        <v>8</v>
-      </c>
-      <c r="D159" t="s">
-        <v>104</v>
-      </c>
-      <c r="E159">
-        <v>-801</v>
-      </c>
-      <c r="F159">
-        <v>58</v>
-      </c>
-      <c r="G159" t="s">
-        <v>53</v>
-      </c>
-      <c r="H159" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I159" t="s">
-        <v>12</v>
-      </c>
-      <c r="J159" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="A160">
-        <v>2019</v>
-      </c>
-      <c r="B160">
-        <v>13</v>
-      </c>
-      <c r="C160" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" t="s">
-        <v>104</v>
-      </c>
-      <c r="E160">
-        <v>-802</v>
-      </c>
-      <c r="F160">
-        <v>56</v>
-      </c>
-      <c r="G160" t="s">
-        <v>53</v>
-      </c>
-      <c r="H160" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I160" t="s">
-        <v>12</v>
-      </c>
-      <c r="J160" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161">
-        <v>2019</v>
-      </c>
-      <c r="B161">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" t="s">
-        <v>174</v>
-      </c>
-      <c r="E161">
-        <v>-803</v>
-      </c>
-      <c r="F161">
-        <v>68</v>
-      </c>
-      <c r="G161" t="s">
-        <v>53</v>
-      </c>
-      <c r="H161" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I161" t="s">
-        <v>12</v>
-      </c>
-      <c r="J161" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162">
-        <v>2019</v>
-      </c>
-      <c r="B162">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162" t="s">
-        <v>234</v>
-      </c>
-      <c r="E162">
-        <v>-804</v>
-      </c>
-      <c r="F162">
-        <v>71</v>
-      </c>
-      <c r="G162" t="s">
-        <v>53</v>
-      </c>
-      <c r="H162" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I162" t="s">
-        <v>12</v>
-      </c>
-      <c r="J162" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163">
-        <v>2019</v>
-      </c>
-      <c r="B163">
-        <v>13</v>
-      </c>
-      <c r="C163" t="s">
-        <v>8</v>
-      </c>
-      <c r="D163" t="s">
-        <v>234</v>
-      </c>
-      <c r="E163">
-        <v>-805</v>
-      </c>
-      <c r="F163">
-        <v>50</v>
-      </c>
-      <c r="G163" t="s">
-        <v>53</v>
-      </c>
-      <c r="H163" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I163" t="s">
-        <v>12</v>
-      </c>
-      <c r="J163" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164">
-        <v>2019</v>
-      </c>
-      <c r="B164">
-        <v>13</v>
-      </c>
-      <c r="C164" t="s">
-        <v>8</v>
-      </c>
-      <c r="D164" t="s">
-        <v>234</v>
-      </c>
-      <c r="E164">
-        <v>-806</v>
-      </c>
-      <c r="F164">
-        <v>60</v>
-      </c>
-      <c r="G164" t="s">
-        <v>53</v>
-      </c>
-      <c r="H164" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I164" t="s">
-        <v>12</v>
-      </c>
-      <c r="J164" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165">
-        <v>2019</v>
-      </c>
-      <c r="B165">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" t="s">
-        <v>234</v>
-      </c>
-      <c r="E165">
-        <v>-807</v>
-      </c>
-      <c r="F165">
-        <v>66</v>
-      </c>
-      <c r="G165" t="s">
-        <v>53</v>
-      </c>
-      <c r="H165" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I165" t="s">
-        <v>12</v>
-      </c>
-      <c r="J165" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166">
-        <v>2019</v>
-      </c>
-      <c r="B166">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166" t="s">
-        <v>234</v>
-      </c>
-      <c r="E166">
-        <v>-808</v>
-      </c>
-      <c r="F166">
-        <v>70</v>
-      </c>
-      <c r="G166" t="s">
-        <v>53</v>
-      </c>
-      <c r="H166" s="1">
-        <v>43696</v>
-      </c>
-      <c r="I166" t="s">
-        <v>12</v>
-      </c>
-      <c r="J166" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167">
-        <v>2019</v>
-      </c>
-      <c r="B167">
-        <v>13</v>
-      </c>
-      <c r="C167" t="s">
-        <v>8</v>
-      </c>
-      <c r="D167" t="s">
-        <v>234</v>
-      </c>
-      <c r="E167">
-        <v>-809</v>
-      </c>
-      <c r="F167">
-        <v>58</v>
-      </c>
-      <c r="G167" t="s">
-        <v>53</v>
-      </c>
-      <c r="H167" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I167" t="s">
-        <v>12</v>
-      </c>
-      <c r="J167" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168">
-        <v>2019</v>
-      </c>
-      <c r="B168">
-        <v>13</v>
-      </c>
-      <c r="C168" t="s">
-        <v>8</v>
-      </c>
-      <c r="D168" t="s">
-        <v>234</v>
-      </c>
-      <c r="E168">
-        <v>-810</v>
-      </c>
-      <c r="F168">
-        <v>41</v>
-      </c>
-      <c r="G168" t="s">
-        <v>53</v>
-      </c>
-      <c r="H168" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I168" t="s">
-        <v>12</v>
-      </c>
-      <c r="J168" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169">
-        <v>2019</v>
-      </c>
-      <c r="B169">
-        <v>13</v>
-      </c>
-      <c r="C169" t="s">
-        <v>8</v>
-      </c>
-      <c r="D169" t="s">
-        <v>234</v>
-      </c>
-      <c r="E169">
-        <v>-811</v>
-      </c>
-      <c r="F169">
-        <v>46</v>
-      </c>
-      <c r="G169" t="s">
-        <v>53</v>
-      </c>
-      <c r="H169" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I169" t="s">
-        <v>12</v>
-      </c>
-      <c r="J169" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170">
-        <v>2019</v>
-      </c>
-      <c r="B170">
-        <v>13</v>
-      </c>
-      <c r="C170" t="s">
-        <v>8</v>
-      </c>
-      <c r="D170" t="s">
-        <v>234</v>
-      </c>
-      <c r="E170">
-        <v>-812</v>
-      </c>
-      <c r="F170">
-        <v>73</v>
-      </c>
-      <c r="G170" t="s">
-        <v>53</v>
-      </c>
-      <c r="H170" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I170" t="s">
-        <v>12</v>
-      </c>
-      <c r="J170" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171">
-        <v>2019</v>
-      </c>
-      <c r="B171">
-        <v>13</v>
-      </c>
-      <c r="C171" t="s">
-        <v>8</v>
-      </c>
-      <c r="D171" t="s">
-        <v>183</v>
-      </c>
-      <c r="E171">
-        <v>-813</v>
-      </c>
-      <c r="F171">
-        <v>55</v>
-      </c>
-      <c r="G171" t="s">
-        <v>53</v>
-      </c>
-      <c r="H171" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I171" t="s">
-        <v>12</v>
-      </c>
-      <c r="J171" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172">
-        <v>2019</v>
-      </c>
-      <c r="B172">
-        <v>13</v>
-      </c>
-      <c r="C172" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" t="s">
-        <v>183</v>
-      </c>
-      <c r="E172">
-        <v>-814</v>
-      </c>
-      <c r="F172">
-        <v>59</v>
-      </c>
-      <c r="G172" t="s">
-        <v>53</v>
-      </c>
-      <c r="H172" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I172" t="s">
-        <v>12</v>
-      </c>
-      <c r="J172" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="A173">
-        <v>2019</v>
-      </c>
-      <c r="B173">
-        <v>13</v>
-      </c>
-      <c r="C173" t="s">
-        <v>8</v>
-      </c>
-      <c r="D173" t="s">
-        <v>183</v>
-      </c>
-      <c r="E173">
-        <v>-815</v>
-      </c>
-      <c r="F173">
-        <v>47</v>
-      </c>
-      <c r="G173" t="s">
-        <v>53</v>
-      </c>
-      <c r="H173" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I173" t="s">
-        <v>12</v>
-      </c>
-      <c r="J173" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174">
-        <v>2019</v>
-      </c>
-      <c r="B174">
-        <v>13</v>
-      </c>
-      <c r="C174" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" t="s">
-        <v>183</v>
-      </c>
-      <c r="E174">
-        <v>-816</v>
-      </c>
-      <c r="F174">
-        <v>72</v>
-      </c>
-      <c r="G174" t="s">
-        <v>53</v>
-      </c>
-      <c r="H174" s="1">
-        <v>43697</v>
-      </c>
-      <c r="I174" t="s">
-        <v>12</v>
-      </c>
-      <c r="J174" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175">
-        <v>2019</v>
-      </c>
-      <c r="B175">
-        <v>13</v>
-      </c>
-      <c r="C175" t="s">
-        <v>8</v>
-      </c>
-      <c r="D175" t="s">
-        <v>183</v>
-      </c>
-      <c r="E175">
-        <v>-817</v>
-      </c>
-      <c r="F175">
-        <v>63</v>
-      </c>
-      <c r="G175" t="s">
-        <v>53</v>
-      </c>
-      <c r="H175" s="1">
-        <v>43698</v>
-      </c>
-      <c r="I175" t="s">
-        <v>12</v>
-      </c>
-      <c r="J175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="A176">
-        <v>2019</v>
-      </c>
-      <c r="B176">
-        <v>13</v>
-      </c>
-      <c r="C176" t="s">
-        <v>8</v>
-      </c>
-      <c r="D176" t="s">
-        <v>183</v>
-      </c>
-      <c r="E176">
-        <v>-818</v>
-      </c>
-      <c r="F176">
-        <v>69</v>
-      </c>
-      <c r="G176" t="s">
-        <v>53</v>
-      </c>
-      <c r="H176" s="1">
-        <v>43698</v>
-      </c>
-      <c r="I176" t="s">
-        <v>12</v>
-      </c>
-      <c r="J176" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177">
-        <v>2019</v>
-      </c>
-      <c r="B177">
-        <v>13</v>
-      </c>
-      <c r="C177" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" t="s">
-        <v>183</v>
-      </c>
-      <c r="E177">
-        <v>-819</v>
-      </c>
-      <c r="F177">
-        <v>66</v>
-      </c>
-      <c r="G177" t="s">
-        <v>53</v>
-      </c>
-      <c r="H177" s="1">
-        <v>43698</v>
-      </c>
-      <c r="I177" t="s">
-        <v>12</v>
-      </c>
-      <c r="J177" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
-      <c r="A178">
-        <v>2019</v>
-      </c>
-      <c r="B178">
-        <v>13</v>
-      </c>
-      <c r="C178" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178" t="s">
-        <v>183</v>
-      </c>
-      <c r="E178">
-        <v>-820</v>
-      </c>
-      <c r="F178">
-        <v>80</v>
-      </c>
-      <c r="G178" t="s">
-        <v>53</v>
-      </c>
-      <c r="H178" s="1">
-        <v>43698</v>
-      </c>
-      <c r="I178" t="s">
-        <v>12</v>
-      </c>
-      <c r="J178" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179">
-        <v>2019</v>
-      </c>
-      <c r="B179">
-        <v>13</v>
-      </c>
-      <c r="C179" t="s">
-        <v>8</v>
-      </c>
-      <c r="D179" t="s">
-        <v>183</v>
-      </c>
-      <c r="E179">
-        <v>-821</v>
-      </c>
-      <c r="F179">
-        <v>62</v>
-      </c>
-      <c r="G179" t="s">
-        <v>53</v>
-      </c>
-      <c r="H179" s="1">
-        <v>43698</v>
-      </c>
-      <c r="I179" t="s">
-        <v>12</v>
-      </c>
-      <c r="J179" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="A180">
-        <v>2019</v>
-      </c>
-      <c r="B180">
-        <v>13</v>
-      </c>
-      <c r="C180" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" t="s">
-        <v>183</v>
-      </c>
-      <c r="E180">
-        <v>-822</v>
-      </c>
-      <c r="F180">
-        <v>47</v>
-      </c>
-      <c r="G180" t="s">
-        <v>53</v>
-      </c>
-      <c r="H180" s="1">
-        <v>43698</v>
-      </c>
-      <c r="I180" t="s">
-        <v>12</v>
-      </c>
-      <c r="J180" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10">
-      <c r="A181">
-        <v>2019</v>
-      </c>
-      <c r="B181">
-        <v>13</v>
-      </c>
-      <c r="C181" t="s">
-        <v>8</v>
-      </c>
-      <c r="D181" t="s">
-        <v>183</v>
-      </c>
-      <c r="E181">
-        <v>-823</v>
-      </c>
-      <c r="F181">
-        <v>69</v>
-      </c>
-      <c r="G181" t="s">
-        <v>53</v>
-      </c>
-      <c r="H181" s="1">
-        <v>43698</v>
-      </c>
-      <c r="I181" t="s">
-        <v>12</v>
-      </c>
-      <c r="J181" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10">
-      <c r="A182">
-        <v>2019</v>
-      </c>
-      <c r="B182">
-        <v>13</v>
-      </c>
-      <c r="C182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" t="s">
-        <v>183</v>
-      </c>
-      <c r="E182">
-        <v>-824</v>
-      </c>
-      <c r="F182">
-        <v>84</v>
-      </c>
-      <c r="G182" t="s">
-        <v>53</v>
-      </c>
-      <c r="H182" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I182" t="s">
-        <v>12</v>
-      </c>
-      <c r="J182" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10">
-      <c r="A183">
-        <v>2019</v>
-      </c>
-      <c r="B183">
-        <v>13</v>
-      </c>
-      <c r="C183" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" t="s">
-        <v>183</v>
-      </c>
-      <c r="E183">
-        <v>-825</v>
-      </c>
-      <c r="F183">
-        <v>59</v>
-      </c>
-      <c r="G183" t="s">
-        <v>53</v>
-      </c>
-      <c r="H183" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I183" t="s">
-        <v>12</v>
-      </c>
-      <c r="J183" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10">
-      <c r="A184">
-        <v>2019</v>
-      </c>
-      <c r="B184">
-        <v>13</v>
-      </c>
-      <c r="C184" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" t="s">
-        <v>183</v>
-      </c>
-      <c r="E184">
-        <v>-826</v>
-      </c>
-      <c r="F184">
-        <v>79</v>
-      </c>
-      <c r="G184" t="s">
-        <v>53</v>
-      </c>
-      <c r="H184" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I184" t="s">
-        <v>12</v>
-      </c>
-      <c r="J184" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10">
-      <c r="A185">
-        <v>2019</v>
-      </c>
-      <c r="B185">
-        <v>13</v>
-      </c>
-      <c r="C185" t="s">
-        <v>8</v>
-      </c>
-      <c r="D185" t="s">
-        <v>45</v>
-      </c>
-      <c r="E185">
-        <v>-827</v>
-      </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185" t="s">
-        <v>53</v>
-      </c>
-      <c r="H185" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I185" t="s">
-        <v>12</v>
-      </c>
-      <c r="J185" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10">
-      <c r="A186">
-        <v>2019</v>
-      </c>
-      <c r="B186">
-        <v>13</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" t="s">
-        <v>244</v>
-      </c>
-      <c r="E186">
-        <v>-827</v>
-      </c>
-      <c r="F186">
-        <v>8</v>
-      </c>
-      <c r="G186" t="s">
-        <v>53</v>
-      </c>
-      <c r="H186" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I186" t="s">
-        <v>12</v>
-      </c>
-      <c r="J186" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10">
-      <c r="A187">
-        <v>2019</v>
-      </c>
-      <c r="B187">
-        <v>13</v>
-      </c>
-      <c r="C187" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" t="s">
-        <v>41</v>
-      </c>
-      <c r="E187">
-        <v>-827</v>
-      </c>
-      <c r="F187">
-        <v>2</v>
-      </c>
-      <c r="G187" t="s">
-        <v>53</v>
-      </c>
-      <c r="H187" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I187" t="s">
-        <v>12</v>
-      </c>
-      <c r="J187" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10">
-      <c r="A188">
-        <v>2019</v>
-      </c>
-      <c r="B188">
-        <v>13</v>
-      </c>
-      <c r="C188" t="s">
-        <v>8</v>
-      </c>
-      <c r="D188" t="s">
-        <v>51</v>
-      </c>
-      <c r="E188">
-        <v>-827</v>
-      </c>
-      <c r="F188">
-        <v>6</v>
-      </c>
-      <c r="G188" t="s">
-        <v>53</v>
-      </c>
-      <c r="H188" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I188" t="s">
-        <v>12</v>
-      </c>
-      <c r="J188" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10">
-      <c r="A189">
-        <v>2019</v>
-      </c>
-      <c r="B189">
-        <v>13</v>
-      </c>
-      <c r="C189" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" t="s">
-        <v>148</v>
-      </c>
-      <c r="E189">
-        <v>-827</v>
-      </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189" t="s">
-        <v>53</v>
-      </c>
-      <c r="H189" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I189" t="s">
-        <v>12</v>
-      </c>
-      <c r="J189" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10">
-      <c r="A190">
-        <v>2019</v>
-      </c>
-      <c r="B190">
-        <v>13</v>
-      </c>
-      <c r="C190" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" t="s">
-        <v>246</v>
-      </c>
-      <c r="E190">
-        <v>-827</v>
-      </c>
-      <c r="F190">
-        <v>25</v>
-      </c>
-      <c r="G190" t="s">
-        <v>53</v>
-      </c>
-      <c r="H190" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I190" t="s">
-        <v>12</v>
-      </c>
-      <c r="J190" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10">
-      <c r="A191">
-        <v>2019</v>
-      </c>
-      <c r="B191">
-        <v>13</v>
-      </c>
-      <c r="C191" t="s">
-        <v>8</v>
-      </c>
-      <c r="D191" t="s">
-        <v>247</v>
-      </c>
-      <c r="E191">
-        <v>-827</v>
-      </c>
-      <c r="F191">
-        <v>2</v>
-      </c>
-      <c r="G191" t="s">
-        <v>53</v>
-      </c>
-      <c r="H191" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I191" t="s">
-        <v>12</v>
-      </c>
-      <c r="J191" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10">
-      <c r="A192">
-        <v>2019</v>
-      </c>
-      <c r="B192">
-        <v>13</v>
-      </c>
-      <c r="C192" t="s">
-        <v>8</v>
-      </c>
-      <c r="D192" t="s">
-        <v>248</v>
-      </c>
-      <c r="E192">
-        <v>-828</v>
-      </c>
-      <c r="F192">
-        <v>35</v>
-      </c>
-      <c r="G192" t="s">
-        <v>53</v>
-      </c>
-      <c r="H192" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I192" t="s">
-        <v>12</v>
-      </c>
-      <c r="J192" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10">
-      <c r="A193">
-        <v>2019</v>
-      </c>
-      <c r="B193">
-        <v>13</v>
-      </c>
-      <c r="C193" t="s">
-        <v>8</v>
-      </c>
-      <c r="D193" t="s">
-        <v>249</v>
-      </c>
-      <c r="E193">
-        <v>-828</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
-      </c>
-      <c r="G193" t="s">
-        <v>53</v>
-      </c>
-      <c r="H193" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I193" t="s">
-        <v>12</v>
-      </c>
-      <c r="J193" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10">
-      <c r="A194">
-        <v>2019</v>
-      </c>
-      <c r="B194">
-        <v>13</v>
-      </c>
-      <c r="C194" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" t="s">
-        <v>248</v>
-      </c>
-      <c r="E194">
-        <v>-829</v>
-      </c>
-      <c r="F194">
-        <v>39</v>
-      </c>
-      <c r="G194" t="s">
-        <v>53</v>
-      </c>
-      <c r="H194" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I194" t="s">
-        <v>12</v>
-      </c>
-      <c r="J194" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10">
-      <c r="A195">
-        <v>2019</v>
-      </c>
-      <c r="B195">
-        <v>13</v>
-      </c>
-      <c r="C195" t="s">
-        <v>8</v>
-      </c>
-      <c r="D195" t="s">
-        <v>248</v>
-      </c>
-      <c r="E195">
-        <v>-830</v>
-      </c>
-      <c r="F195">
-        <v>37</v>
-      </c>
-      <c r="G195" t="s">
-        <v>53</v>
-      </c>
-      <c r="H195" s="1">
-        <v>43699</v>
-      </c>
-      <c r="I195" t="s">
-        <v>12</v>
-      </c>
-      <c r="J195" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196">
-        <v>2019</v>
-      </c>
-      <c r="B196">
-        <v>13</v>
-      </c>
-      <c r="C196" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E196">
-        <v>-831</v>
-      </c>
-      <c r="F196">
-        <v>50</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H196" s="1">
-        <v>43711</v>
-      </c>
-      <c r="I196" t="s">
-        <v>251</v>
-      </c>
-      <c r="J196" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10">
-      <c r="A197">
-        <v>2019</v>
-      </c>
-      <c r="B197">
-        <v>13</v>
-      </c>
-      <c r="C197" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E197">
-        <v>-832</v>
-      </c>
-      <c r="F197">
-        <v>67</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H197" s="1">
-        <v>43711</v>
-      </c>
-      <c r="I197" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="J197" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10">
-      <c r="A198" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B198" s="5">
-        <v>13</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D198" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E198">
-        <v>-833</v>
-      </c>
-      <c r="F198">
-        <v>67</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H198" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I198" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J198" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10">
-      <c r="A199" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B199" s="5">
-        <v>13</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E199">
-        <v>-834</v>
-      </c>
-      <c r="F199">
-        <v>85</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H199" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I199" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J199" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10">
-      <c r="A200" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B200" s="5">
-        <v>13</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E200">
-        <v>-835</v>
-      </c>
-      <c r="F200">
-        <v>88</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H200" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I200" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J200" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10">
-      <c r="A201" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B201" s="5">
-        <v>13</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D201" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E201">
-        <v>-836</v>
-      </c>
-      <c r="F201">
-        <v>58</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H201" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I201" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J201" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10">
-      <c r="A202" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B202" s="5">
-        <v>13</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E202">
-        <v>-837</v>
-      </c>
-      <c r="F202">
-        <v>108</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H202" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I202" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J202" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10">
-      <c r="A203" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B203" s="5">
-        <v>13</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E203">
-        <v>-838</v>
-      </c>
-      <c r="F203">
-        <v>99</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H203" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I203" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J203" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10">
-      <c r="A204" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B204" s="5">
-        <v>13</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E204">
-        <v>-839</v>
-      </c>
-      <c r="F204">
-        <v>55</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H204" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I204" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J204" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10">
-      <c r="A205" s="5">
-        <v>2019</v>
-      </c>
-      <c r="B205" s="5">
-        <v>13</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D205" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E205">
-        <v>-840</v>
-      </c>
-      <c r="F205">
-        <v>65</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H205" s="1">
-        <v>43712</v>
-      </c>
-      <c r="I205" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J205" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10">
-      <c r="A206" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B206">
-        <v>13</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E206" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F206">
-        <v>180</v>
-      </c>
-      <c r="G206" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H206" s="1">
-        <v>43713</v>
-      </c>
-      <c r="I206" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J206" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10">
-      <c r="A207" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B207">
-        <v>13</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="E207" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F207">
-        <v>97</v>
-      </c>
-      <c r="G207" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H207" s="1">
-        <v>43713</v>
-      </c>
-      <c r="I207" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J207" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10">
-      <c r="A208" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B208">
-        <v>13</v>
-      </c>
-      <c r="C208" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E208" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F208">
-        <v>90</v>
-      </c>
-      <c r="G208" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H208" s="1">
-        <v>43713</v>
-      </c>
-      <c r="I208" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J208" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10">
-      <c r="A209" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B209">
-        <v>13</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D209" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F209">
-        <v>100</v>
-      </c>
-      <c r="G209" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H209" s="1">
-        <v>43713</v>
-      </c>
-      <c r="I209" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J209" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10">
-      <c r="A210" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B210" s="10">
-        <v>13</v>
-      </c>
-      <c r="C210" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D210" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E210" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="F210">
-        <v>70</v>
-      </c>
-      <c r="G210" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H210" s="1">
-        <v>43714</v>
-      </c>
-      <c r="I210" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J210" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10">
-      <c r="A211" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B211" s="10">
-        <v>13</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D211" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E211" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F211">
-        <v>59</v>
-      </c>
-      <c r="G211" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H211" s="1">
-        <v>43714</v>
-      </c>
-      <c r="I211" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J211" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10">
-      <c r="A212" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B212" s="10">
-        <v>13</v>
-      </c>
-      <c r="C212" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F212">
-        <v>93</v>
-      </c>
-      <c r="G212" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H212" s="1">
-        <v>43717</v>
-      </c>
-      <c r="I212" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J212" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10">
-      <c r="A213" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B213" s="10">
-        <v>13</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D213" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E213" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F213">
-        <v>47</v>
-      </c>
-      <c r="G213" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H213" s="1">
-        <v>43717</v>
-      </c>
-      <c r="I213" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J213" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10">
-      <c r="A214" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B214" s="10">
-        <v>13</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E214" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="F214">
-        <v>62</v>
-      </c>
-      <c r="G214" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H214" s="1">
-        <v>43717</v>
-      </c>
-      <c r="I214" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J214" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10">
-      <c r="A215" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B215" s="10">
-        <v>13</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D215" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E215" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="F215">
-        <v>58</v>
-      </c>
-      <c r="G215" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H215" s="1">
-        <v>43717</v>
-      </c>
-      <c r="I215" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J215" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10">
-      <c r="A216" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B216" s="10">
-        <v>13</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E216" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="F216">
-        <v>50</v>
-      </c>
-      <c r="G216" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H216" s="1">
-        <v>43718</v>
-      </c>
-      <c r="I216" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J216" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10">
-      <c r="A217" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B217" s="10">
-        <v>13</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E217" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F217">
-        <v>37</v>
-      </c>
-      <c r="G217" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H217" s="1">
-        <v>43718</v>
-      </c>
-      <c r="I217" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J217" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10">
-      <c r="A218" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B218" s="10">
-        <v>13</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D218" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E218" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F218">
-        <v>16</v>
-      </c>
-      <c r="G218" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H218" s="1">
-        <v>43718</v>
-      </c>
-      <c r="I218" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J218" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10">
-      <c r="A219" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B219" s="10">
-        <v>13</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E219" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F219">
-        <v>7</v>
-      </c>
-      <c r="G219" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H219" s="1">
-        <v>43718</v>
-      </c>
-      <c r="I219" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J219" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10">
-      <c r="A220" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B220" s="10">
-        <v>13</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E220" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="F220">
-        <v>55</v>
-      </c>
-      <c r="G220" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H220" s="1">
-        <v>43718</v>
-      </c>
-      <c r="I220" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J220" s="10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10">
-      <c r="A221" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B221" s="10">
-        <v>13</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D221" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E221" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F221">
-        <v>48</v>
-      </c>
-      <c r="G221" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H221" s="1">
-        <v>43718</v>
-      </c>
-      <c r="I221" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J221" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10">
-      <c r="A222" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B222" s="10">
-        <v>13</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E222" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="F222">
-        <v>54</v>
-      </c>
-      <c r="G222" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H222" s="1">
-        <v>43718</v>
-      </c>
-      <c r="I222" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J222" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10">
-      <c r="A223" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B223" s="10">
-        <v>13</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D223" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E223" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F223">
-        <v>64</v>
-      </c>
-      <c r="G223" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H223" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I223" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J223" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10">
-      <c r="A224" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B224" s="10">
-        <v>13</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E224" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="F224">
-        <v>60</v>
-      </c>
-      <c r="G224" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H224" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I224" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J224" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10">
-      <c r="A225" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B225" s="10">
-        <v>13</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="E225" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F225">
-        <v>30</v>
-      </c>
-      <c r="G225" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H225" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I225" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J225" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10">
-      <c r="A226" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B226" s="10">
-        <v>13</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D226" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E226" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F226">
-        <v>33</v>
-      </c>
-      <c r="G226" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H226" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I226" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J226" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10">
-      <c r="A227" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B227" s="10">
-        <v>13</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D227" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E227" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="F227">
-        <v>60</v>
-      </c>
-      <c r="G227" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H227" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I227" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J227" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10">
-      <c r="A228" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B228" s="10">
-        <v>13</v>
-      </c>
-      <c r="C228" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E228" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F228">
-        <v>54</v>
-      </c>
-      <c r="G228" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H228" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I228" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J228" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10">
-      <c r="A229" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B229" s="10">
-        <v>13</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D229" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E229" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="F229">
-        <v>78</v>
-      </c>
-      <c r="G229" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H229" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I229" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J229" s="10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10">
-      <c r="A230" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B230" s="10">
-        <v>13</v>
-      </c>
-      <c r="C230" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D230" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E230" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="F230">
-        <v>76</v>
-      </c>
-      <c r="G230" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H230" s="1">
-        <v>43719</v>
-      </c>
-      <c r="I230" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J230" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10">
-      <c r="A231" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B231">
-        <v>14</v>
-      </c>
-      <c r="C231" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F231">
-        <v>31</v>
-      </c>
-      <c r="G231" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H231" s="1">
-        <v>43720</v>
-      </c>
-      <c r="I231" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J231" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10">
-      <c r="A232" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B232">
-        <v>14</v>
-      </c>
-      <c r="C232" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F232">
-        <v>1</v>
-      </c>
-      <c r="G232" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H232" s="1">
-        <v>43720</v>
-      </c>
-      <c r="I232" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J232" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10">
-      <c r="A233" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B233">
-        <v>14</v>
-      </c>
-      <c r="C233" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D233" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F233">
-        <v>3</v>
-      </c>
-      <c r="G233" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H233" s="1">
-        <v>43720</v>
-      </c>
-      <c r="I233" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J233" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10">
-      <c r="A234" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B234">
-        <v>14</v>
-      </c>
-      <c r="C234" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F234">
-        <v>2</v>
-      </c>
-      <c r="G234" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H234" s="1">
-        <v>43720</v>
-      </c>
-      <c r="I234" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J234" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10">
-      <c r="A235" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B235">
-        <v>14</v>
-      </c>
-      <c r="C235" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D235" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F235">
-        <v>52</v>
-      </c>
-      <c r="G235" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H235" s="1">
-        <v>43720</v>
-      </c>
-      <c r="I235" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J235" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10">
-      <c r="A236" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B236">
-        <v>14</v>
-      </c>
-      <c r="C236" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D236" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F236">
-        <v>44</v>
-      </c>
-      <c r="G236" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H236" s="1">
-        <v>43720</v>
-      </c>
-      <c r="I236" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J236" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10">
-      <c r="A237" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B237">
-        <v>14</v>
-      </c>
-      <c r="C237" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D237" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F237">
-        <v>190</v>
-      </c>
-      <c r="G237" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H237" s="1">
-        <v>43720</v>
-      </c>
-      <c r="I237" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J237" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10">
-      <c r="A238" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B238" s="10">
-        <v>14</v>
-      </c>
-      <c r="C238" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D238" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F238">
-        <v>4</v>
-      </c>
-      <c r="G238" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H238" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I238" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J238" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10">
-      <c r="A239" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B239" s="10">
-        <v>14</v>
-      </c>
-      <c r="C239" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D239" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F239">
-        <v>56</v>
-      </c>
-      <c r="G239" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H239" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I239" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J239" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10">
-      <c r="A240" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B240" s="10">
-        <v>14</v>
-      </c>
-      <c r="C240" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F240">
-        <v>22</v>
-      </c>
-      <c r="G240" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H240" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I240" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J240" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10">
-      <c r="A241" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B241" s="10">
-        <v>14</v>
-      </c>
-      <c r="C241" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D241" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F241">
-        <v>12</v>
-      </c>
-      <c r="G241" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H241" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I241" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J241" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10">
-      <c r="A242" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B242" s="10">
-        <v>14</v>
-      </c>
-      <c r="C242" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D242" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F242">
-        <v>7</v>
-      </c>
-      <c r="G242" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H242" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I242" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J242" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10">
-      <c r="A243" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B243" s="10">
-        <v>14</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D243" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F243">
-        <v>65</v>
-      </c>
-      <c r="G243" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H243" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I243" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J243" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10">
-      <c r="A244" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B244" s="10">
-        <v>14</v>
-      </c>
-      <c r="C244" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F244">
-        <v>36</v>
-      </c>
-      <c r="G244" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H244" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I244" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J244" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10">
-      <c r="A245" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B245" s="10">
-        <v>14</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D245" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F245">
-        <v>7</v>
-      </c>
-      <c r="G245" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H245" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I245" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J245" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10">
-      <c r="A246" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B246" s="10">
-        <v>14</v>
-      </c>
-      <c r="C246" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D246" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F246">
-        <v>4</v>
-      </c>
-      <c r="G246" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H246" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I246" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J246" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
-      <c r="A247" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B247" s="10">
-        <v>14</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H247" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I247" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J247" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10">
-      <c r="A248" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B248" s="10">
-        <v>14</v>
-      </c>
-      <c r="C248" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H248" s="1">
-        <v>43721</v>
-      </c>
-      <c r="I248" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J248" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
-      <c r="A249" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B249" s="10">
-        <v>14</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D249" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F249">
-        <v>45</v>
-      </c>
-      <c r="G249" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H249" s="1">
-        <v>43724</v>
-      </c>
-      <c r="I249" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J249" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="A250" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B250" s="10">
-        <v>14</v>
-      </c>
-      <c r="C250" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F250">
-        <v>40</v>
-      </c>
-      <c r="G250" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H250" s="1">
-        <v>43724</v>
-      </c>
-      <c r="I250" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J250" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="A251" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B251" s="10">
-        <v>14</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D251" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F251">
-        <v>53</v>
-      </c>
-      <c r="G251" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H251" s="1">
-        <v>43724</v>
-      </c>
-      <c r="I251" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J251" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10">
-      <c r="A252" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B252" s="10">
-        <v>14</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F252">
-        <v>36</v>
-      </c>
-      <c r="G252" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H252" s="1">
-        <v>43724</v>
-      </c>
-      <c r="I252" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J252" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B253" s="10">
-        <v>14</v>
-      </c>
-      <c r="C253" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F253">
-        <v>73</v>
-      </c>
-      <c r="G253" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H253" s="1">
-        <v>43724</v>
-      </c>
-      <c r="I253" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J253" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B254" s="10">
-        <v>14</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F254">
-        <v>73</v>
-      </c>
-      <c r="G254" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H254" s="1">
-        <v>43724</v>
-      </c>
-      <c r="I254" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J254" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B255" s="10">
-        <v>14</v>
-      </c>
-      <c r="C255" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D255" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F255">
-        <v>41</v>
-      </c>
-      <c r="G255" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H255" s="1">
-        <v>43725</v>
-      </c>
-      <c r="I255" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J255" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="A256" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B256" s="10">
-        <v>14</v>
-      </c>
-      <c r="C256" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D256" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="F256">
-        <v>69</v>
-      </c>
-      <c r="G256" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H256" s="1">
-        <v>43725</v>
-      </c>
-      <c r="I256" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J256" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10">
-      <c r="A257" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B257" s="10">
-        <v>14</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F257">
-        <v>73</v>
-      </c>
-      <c r="G257" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H257" s="1">
-        <v>43725</v>
-      </c>
-      <c r="I257" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J257" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="258" spans="1:10">
-      <c r="A258" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B258" s="10">
-        <v>14</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D258" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F258">
-        <v>60</v>
-      </c>
-      <c r="G258" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H258" s="1">
-        <v>43725</v>
-      </c>
-      <c r="I258" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J258" s="10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="259" spans="1:10">
-      <c r="A259" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B259" s="10">
-        <v>14</v>
-      </c>
-      <c r="C259" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F259">
-        <v>95</v>
-      </c>
-      <c r="G259" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H259" s="1">
-        <v>43725</v>
-      </c>
-      <c r="I259" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J259" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="260" spans="1:10">
-      <c r="A260" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B260" s="10">
-        <v>14</v>
-      </c>
-      <c r="C260" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D260" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F260">
-        <v>62</v>
-      </c>
-      <c r="G260" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H260" s="1">
-        <v>43725</v>
-      </c>
-      <c r="I260" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J260" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="261" spans="1:10">
-      <c r="A261" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B261" s="10">
-        <v>14</v>
-      </c>
-      <c r="C261" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D261" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F261">
-        <v>38</v>
-      </c>
-      <c r="G261" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H261" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I261" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J261" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="262" spans="1:10">
-      <c r="A262" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B262" s="10">
-        <v>14</v>
-      </c>
-      <c r="C262" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D262" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F262">
-        <v>2</v>
-      </c>
-      <c r="G262" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H262" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I262" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J262" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10">
-      <c r="A263" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B263" s="10">
-        <v>14</v>
-      </c>
-      <c r="C263" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F263">
-        <v>4</v>
-      </c>
-      <c r="G263" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H263" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I263" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J263" s="10" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="264" spans="1:10">
-      <c r="A264" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B264" s="10">
-        <v>14</v>
-      </c>
-      <c r="C264" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F264">
-        <v>12</v>
-      </c>
-      <c r="G264" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H264" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I264" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J264" s="10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10">
-      <c r="A265" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B265" s="10">
-        <v>14</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D265" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F265">
-        <v>2</v>
-      </c>
-      <c r="G265" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H265" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I265" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J265" s="10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="266" spans="1:10">
-      <c r="A266" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B266" s="10">
-        <v>14</v>
-      </c>
-      <c r="C266" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F266">
-        <v>80</v>
-      </c>
-      <c r="G266" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H266" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I266" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J266" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="267" spans="1:10">
-      <c r="A267" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B267" s="10">
-        <v>14</v>
-      </c>
-      <c r="C267" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D267" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F267">
-        <v>62</v>
-      </c>
-      <c r="G267" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H267" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I267" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J267" s="10" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10">
-      <c r="A268" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B268" s="10">
-        <v>14</v>
-      </c>
-      <c r="C268" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D268" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F268">
-        <v>80</v>
-      </c>
-      <c r="G268" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H268" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I268" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J268" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10">
-      <c r="A269" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B269" s="10">
-        <v>14</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F269">
-        <v>70</v>
-      </c>
-      <c r="G269" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H269" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I269" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J269" s="10" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10">
-      <c r="A270" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B270" s="10">
-        <v>14</v>
-      </c>
-      <c r="C270" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D270" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F270">
-        <v>70</v>
-      </c>
-      <c r="G270" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H270" s="1">
-        <v>43726</v>
-      </c>
-      <c r="I270" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J270" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="1048576" spans="8:8">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H177" s="1"/>
+      <c r="J177" s="10"/>
+    </row>
+    <row r="178" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D196" s="4"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="6"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="7"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="10"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="5"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="8"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="10"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="5"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="10"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="10"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="5"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="9"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="5"/>
+      <c r="J202" s="10"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="5"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="10"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="5"/>
+      <c r="J203" s="10"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="8"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="5"/>
+      <c r="J204" s="10"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="8"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="11"/>
+      <c r="E210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="11"/>
+      <c r="E211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="10"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="11"/>
+      <c r="E213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="11"/>
+      <c r="E214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="11"/>
+      <c r="E216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="11"/>
+      <c r="E217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="11"/>
+      <c r="E220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="3"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="3"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="3"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="3"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="3"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
+      <c r="E236" s="3"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
+      <c r="E237" s="3"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="3"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="3"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
+      <c r="E240" s="3"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
+      <c r="E241" s="3"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="1"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
+      <c r="E242" s="3"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="1"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="3"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="1"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="3"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="1"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="3"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="1"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
+      <c r="E246" s="3"/>
+      <c r="G246" s="10"/>
+      <c r="H246" s="1"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
+      <c r="E247" s="3"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="1"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="3"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="1"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
+      <c r="E249" s="3"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="1"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
+      <c r="E250" s="3"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="1"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="10"/>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
+      <c r="E251" s="3"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="1"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="10"/>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
+      <c r="E252" s="3"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="1"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
+      <c r="E253" s="3"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="1"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="10"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
+      <c r="E254" s="3"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="1"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="10"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
+      <c r="E255" s="3"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="1"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="10"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="10"/>
+      <c r="E256" s="3"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="1"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="10"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
+      <c r="E257" s="3"/>
+      <c r="G257" s="10"/>
+      <c r="H257" s="1"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="10"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
+      <c r="E258" s="3"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="1"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="3"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="1"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
+      <c r="E260" s="3"/>
+      <c r="G260" s="10"/>
+      <c r="H260" s="1"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10"/>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="3"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="10"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
+      <c r="E262" s="3"/>
+      <c r="G262" s="10"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="10"/>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
+      <c r="E263" s="3"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="10"/>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
+      <c r="E264" s="3"/>
+      <c r="G264" s="10"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="10"/>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="3"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="3"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="10"/>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="3"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10"/>
+      <c r="E268" s="3"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="1"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="10"/>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="3"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="1"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
+      <c r="E270" s="3"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="1"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="10"/>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H1048576" s="1"/>
     </row>
   </sheetData>
